--- a/Test_Mobile_mcovid.xlsx
+++ b/Test_Mobile_mcovid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141E2ED-7337-4CE8-A856-B8E2C9FCA4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA55128-E63D-4820-B827-2EF5D74CFE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -919,6 +919,60 @@
   </si>
   <si>
     <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>MB_LG_22</t>
+  </si>
+  <si>
+    <t>MB_LG_23</t>
+  </si>
+  <si>
+    <t>MB_LG_24</t>
+  </si>
+  <si>
+    <t>MB_LG_25</t>
+  </si>
+  <si>
+    <t>MB_LG_26</t>
+  </si>
+  <si>
+    <t>MB_LG_27</t>
+  </si>
+  <si>
+    <t>MB_LG_28</t>
+  </si>
+  <si>
+    <t>MB_LG_29</t>
+  </si>
+  <si>
+    <t>MB_LG_30</t>
+  </si>
+  <si>
+    <t>MB_LG_31</t>
+  </si>
+  <si>
+    <t>MB_LG_32</t>
+  </si>
+  <si>
+    <t>MB_LG_33</t>
+  </si>
+  <si>
+    <t>MB_LG_34</t>
+  </si>
+  <si>
+    <t>MB_LG_35</t>
+  </si>
+  <si>
+    <t>MB_LG_36</t>
+  </si>
+  <si>
+    <t>MB_LG_37</t>
+  </si>
+  <si>
+    <t>MB_LG_38</t>
+  </si>
+  <si>
+    <t>MB_LG_39</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1603,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,9 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1990,28 +2044,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="35" t="s">
         <v>108</v>
       </c>
@@ -2032,28 +2086,28 @@
       <c r="F5" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="35" t="s">
         <v>108</v>
       </c>
@@ -2076,28 +2130,28 @@
       <c r="F11" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="61"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="61" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="35" t="s">
         <v>108</v>
       </c>
@@ -2142,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF24FE9-078F-44AF-9B36-02F3C04AA583}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" customHeight="1"/>
@@ -2182,10 +2236,10 @@
       <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="70"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="45" t="s">
         <v>7</v>
       </c>
@@ -2223,28 +2277,28 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="184.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -2275,7 +2329,7 @@
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="47" t="s">
         <v>165</v>
       </c>
@@ -2300,7 +2354,7 @@
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="46" t="s">
@@ -2326,7 +2380,7 @@
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="47" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2404,7 @@
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="51" t="s">
         <v>72</v>
       </c>
@@ -2377,7 +2431,7 @@
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="49" t="s">
         <v>54</v>
       </c>
@@ -2401,14 +2455,14 @@
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="49" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="64" t="s">
         <v>182</v>
       </c>
       <c r="H10" s="47"/>
@@ -2425,14 +2479,14 @@
       <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="47" t="s">
         <v>193</v>
       </c>
@@ -2444,8 +2498,8 @@
       <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="70"/>
       <c r="E12" s="49" t="s">
         <v>209</v>
       </c>
@@ -2482,7 +2536,7 @@
       <c r="A14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="66" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -2491,7 +2545,7 @@
       <c r="E14" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="64" t="s">
         <v>157</v>
       </c>
       <c r="L14" s="53" t="s">
@@ -2502,14 +2556,14 @@
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="47" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="L15" s="53" t="s">
         <v>138</v>
       </c>
@@ -2518,7 +2572,7 @@
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="49" t="s">
         <v>70</v>
       </c>
@@ -2536,7 +2590,7 @@
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="49" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +2608,7 @@
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="51" t="s">
         <v>190</v>
       </c>
@@ -2573,7 +2627,7 @@
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="66" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -2589,7 +2643,7 @@
       <c r="L19" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="M19" s="95" t="s">
+      <c r="M19" s="58" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2597,7 +2651,7 @@
       <c r="A20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="47" t="s">
         <v>199</v>
       </c>
@@ -2615,7 +2669,7 @@
       <c r="A21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="49" t="s">
@@ -2635,14 +2689,14 @@
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="49" t="s">
         <v>223</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="64" t="s">
         <v>182</v>
       </c>
       <c r="L22" s="53" t="s">
@@ -2653,14 +2707,14 @@
       <c r="A23" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="L23" s="53" t="s">
         <v>138</v>
       </c>
@@ -2669,8 +2723,8 @@
       <c r="A24" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="70"/>
       <c r="E24" s="49" t="s">
         <v>218</v>
       </c>
@@ -2685,7 +2739,7 @@
       <c r="A25" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="51" t="s">
         <v>219</v>
       </c>
@@ -2725,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC95F3-AE03-493A-A963-6CC85904072D}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2749,11 +2803,11 @@
     <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1">
       <c r="A2" s="16" t="s">
@@ -2777,10 +2831,10 @@
       <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2817,28 +2871,28 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" ht="123" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2864,7 +2918,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
@@ -2885,14 +2939,14 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="91" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="19" t="s">
@@ -2903,12 +2957,12 @@
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="91"/>
       <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="89"/>
+      <c r="F8" s="90"/>
       <c r="L8" s="19" t="s">
         <v>138</v>
       </c>
@@ -2917,8 +2971,8 @@
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="91"/>
       <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2933,8 +2987,8 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="91"/>
       <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
@@ -2949,8 +3003,8 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="91"/>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +3019,7 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2985,7 +3039,7 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
@@ -3003,7 +3057,7 @@
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
@@ -3021,7 +3075,7 @@
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="14" t="s">
         <v>54</v>
       </c>
@@ -3039,17 +3093,17 @@
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="95" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="19" t="s">
@@ -3060,15 +3114,15 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="L17" s="19" t="s">
         <v>138</v>
       </c>
@@ -3077,9 +3131,9 @@
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
@@ -3094,7 +3148,7 @@
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -3103,7 +3157,7 @@
       <c r="E19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="87" t="s">
         <v>157</v>
       </c>
       <c r="L19" s="19" t="s">
@@ -3114,14 +3168,14 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="65"/>
       <c r="L20" s="19" t="s">
         <v>138</v>
       </c>
@@ -3130,7 +3184,7 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="14" t="s">
         <v>70</v>
       </c>
@@ -3148,7 +3202,7 @@
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="14" t="s">
         <v>71</v>
       </c>
@@ -3171,15 +3225,15 @@
     </row>
     <row r="24" spans="1:13" ht="47.25">
       <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="76" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="80" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -3197,13 +3251,13 @@
     </row>
     <row r="25" spans="1:13" ht="63">
       <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="B25" s="77"/>
       <c r="C25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="24" t="s">
         <v>101</v>
       </c>
@@ -3216,13 +3270,13 @@
     </row>
     <row r="26" spans="1:13" ht="47.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="B26" s="77"/>
       <c r="C26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="25" t="s">
         <v>103</v>
       </c>
@@ -3235,13 +3289,13 @@
     </row>
     <row r="27" spans="1:13" ht="63">
       <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="76"/>
+        <v>231</v>
+      </c>
+      <c r="B27" s="77"/>
       <c r="C27" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="24" t="s">
         <v>117</v>
       </c>
@@ -3254,13 +3308,13 @@
     </row>
     <row r="28" spans="1:13" ht="31.5">
       <c r="A28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="77"/>
+        <v>232</v>
+      </c>
+      <c r="B28" s="78"/>
       <c r="C28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="39" t="s">
         <v>118</v>
       </c>
@@ -3273,9 +3327,9 @@
     </row>
     <row r="29" spans="1:13" ht="47.25">
       <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="79" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="40" t="s">
@@ -3293,16 +3347,16 @@
     </row>
     <row r="30" spans="1:13" ht="47.25">
       <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="66"/>
+        <v>234</v>
+      </c>
+      <c r="B30" s="67"/>
       <c r="C30" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="83" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="19" t="s">
@@ -3311,25 +3365,25 @@
     </row>
     <row r="31" spans="1:13" ht="63">
       <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="66"/>
+        <v>235</v>
+      </c>
+      <c r="B31" s="67"/>
       <c r="C31" s="42" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="84"/>
       <c r="L31" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="47.25">
       <c r="A32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="66"/>
+        <v>236</v>
+      </c>
+      <c r="B32" s="67"/>
       <c r="C32" s="41" t="s">
         <v>93</v>
       </c>
@@ -3345,9 +3399,9 @@
     </row>
     <row r="33" spans="1:12" ht="63">
       <c r="A33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="66"/>
+        <v>237</v>
+      </c>
+      <c r="B33" s="67"/>
       <c r="C33" s="42" t="s">
         <v>94</v>
       </c>
@@ -3363,9 +3417,9 @@
     </row>
     <row r="34" spans="1:12" ht="78.75">
       <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="66"/>
+        <v>238</v>
+      </c>
+      <c r="B34" s="67"/>
       <c r="C34" s="42" t="s">
         <v>95</v>
       </c>
@@ -3381,9 +3435,9 @@
     </row>
     <row r="35" spans="1:12" ht="63">
       <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="67"/>
+        <v>239</v>
+      </c>
+      <c r="B35" s="68"/>
       <c r="C35" s="42" t="s">
         <v>129</v>
       </c>
@@ -3399,9 +3453,9 @@
     </row>
     <row r="36" spans="1:12" ht="63">
       <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="85" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -3419,9 +3473,9 @@
     </row>
     <row r="37" spans="1:12" ht="63">
       <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="85"/>
+        <v>241</v>
+      </c>
+      <c r="B37" s="86"/>
       <c r="C37" s="24" t="s">
         <v>151</v>
       </c>
@@ -3437,9 +3491,9 @@
     </row>
     <row r="38" spans="1:12" ht="63">
       <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="85"/>
+        <v>242</v>
+      </c>
+      <c r="B38" s="86"/>
       <c r="C38" s="24" t="s">
         <v>97</v>
       </c>
@@ -3455,9 +3509,9 @@
     </row>
     <row r="39" spans="1:12" ht="63">
       <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="85"/>
+        <v>243</v>
+      </c>
+      <c r="B39" s="86"/>
       <c r="C39" s="24" t="s">
         <v>143</v>
       </c>
@@ -3473,9 +3527,9 @@
     </row>
     <row r="40" spans="1:12" ht="63">
       <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="85"/>
+        <v>244</v>
+      </c>
+      <c r="B40" s="86"/>
       <c r="C40" s="24" t="s">
         <v>153</v>
       </c>
@@ -3491,9 +3545,9 @@
     </row>
     <row r="41" spans="1:12" ht="63">
       <c r="A41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="85"/>
+        <v>245</v>
+      </c>
+      <c r="B41" s="86"/>
       <c r="C41" s="24" t="s">
         <v>145</v>
       </c>
@@ -3509,9 +3563,9 @@
     </row>
     <row r="42" spans="1:12" ht="47.25">
       <c r="A42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="85"/>
+        <v>246</v>
+      </c>
+      <c r="B42" s="86"/>
       <c r="C42" s="25" t="s">
         <v>148</v>
       </c>
@@ -3527,9 +3581,9 @@
     </row>
     <row r="43" spans="1:12" ht="78.75">
       <c r="A43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="85"/>
+        <v>247</v>
+      </c>
+      <c r="B43" s="86"/>
       <c r="C43" s="15" t="s">
         <v>79</v>
       </c>
@@ -3537,7 +3591,7 @@
       <c r="E43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="87" t="s">
         <v>156</v>
       </c>
       <c r="L43" s="19" t="s">
@@ -3546,9 +3600,9 @@
     </row>
     <row r="44" spans="1:12" ht="63">
       <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="77"/>
+        <v>248</v>
+      </c>
+      <c r="B44" s="78"/>
       <c r="C44" s="15" t="s">
         <v>80</v>
       </c>
@@ -3556,7 +3610,7 @@
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="65"/>
       <c r="L44" s="19" t="s">
         <v>138</v>
       </c>

--- a/Test_Mobile_mcovid.xlsx
+++ b/Test_Mobile_mcovid.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C228AF2-48CF-4AA8-99D0-E6BA9AE2DEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD3BDD-E355-4965-B3CD-66A605742F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
     <sheet name="Signin" sheetId="3" r:id="rId2"/>
     <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Post" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="285">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -920,12 +921,236 @@
   <si>
     <t>23/09/2020</t>
   </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>PO_01</t>
+  </si>
+  <si>
+    <t>PO_02</t>
+  </si>
+  <si>
+    <t>PO_03</t>
+  </si>
+  <si>
+    <t>PO_04</t>
+  </si>
+  <si>
+    <t>PO_05</t>
+  </si>
+  <si>
+    <t>PO_06</t>
+  </si>
+  <si>
+    <t>PO_07</t>
+  </si>
+  <si>
+    <t>PO_08</t>
+  </si>
+  <si>
+    <t>Thao tác khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>Xem bài Post</t>
+  </si>
+  <si>
+    <t>1. Chọn chức năng xem bài Post
+2. Kiểm tra màn hình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mở app thành công
+2. Có sẵn ít nhất 5 bản ghi trong list Post.
+</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào biểu tượng bình luận
+2. Kiểm tra màn hình</t>
+  </si>
+  <si>
+    <t>Màn hình hiển thị thông báo: Yêu cầu đăng nhập để thực hiện chức năng này.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mở app thành công
+2. Có sẵn ít nhất 5 bản ghi trong list Post.
+3. Xem được bài Post
+</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình.
+2. giữ biểu tượng bày tỏ cảm xúc.
+3. Kiểm tra màn hình.
+4. Chọn biểu tượng cảm xúc bất kỳ</t>
+  </si>
+  <si>
+    <t>1. Màn hình hiển thị biểu tượng bày tỏ cảm xúc.
+2. Hiển thị các biểu tượng cảm xúc theo hàng ngang.
+3. Khi chọn biểu tượng màn hình có thay đổi icon giống với biểu tượng đã chọn.
+4. Nhưng không được tính vào CSDL</t>
+  </si>
+  <si>
+    <t>Những bài Post đã có sẵn</t>
+  </si>
+  <si>
+    <t>Bày tỏ cảm xúc
+(Like, Dislike, haha, ...)</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình.
+2. giữ biểu tượng bày tỏ cảm xúc.
+3. Kiểm tra màn hình.
+4. Chọn biểu tượng cảm xúc bất kỳ
+5. Kiểm tra màn hình</t>
+  </si>
+  <si>
+    <t>1. Màn hình hiển thị biểu tượng bày tỏ cảm xúc.
+2. Hiển thị các biểu tượng cảm xúc theo hàng ngang.
+3. Khi chọn biểu tượng màn hình có thay đổi icon giống với biểu tượng đã chọn.
+4. Khi người dùng chọn xong, các biểu tượng cảm xúc ẩn đi, chỉ hiển thị biểu tượng đã chọn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share </t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình.
+2.Nhấn vào biểu tượng Share 
+3. Kiểm tra màn hình.</t>
+  </si>
+  <si>
+    <t>1. Màn hình có hiển thị biểu tượng share ở dưới bài Post.
+2. Cho phép nhấn vào biểu tượng.
+3. Có thay đổi màu nền của block chứa icon.
+4. Hiển thị thông báo đăng nhập để thực hiện chức năng.</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng nhấn biểu tượng 3 dấu chấm ở góc trên phải bài post</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình.
+2. Nhấn vào icon dấu 3 chấm dọc ở góc trên phải màn hình.
+3. Kiểm tra màn hình</t>
+  </si>
+  <si>
+    <t>1. Màn hình hiển thị dấu 3 chấm dọc ở góc phải trên bài post.
+2. Cho phép nhấn vào và có thay đổi màu nền.
+3. Show ra 3 chức năng :
+  - Tắt thông báo
+  - Ẩn bài Post
+  - Tắt block và không làm gì cả (trở về màn hình ban đầu khi chưa nhấn vào biểu tượng).</t>
+  </si>
+  <si>
+    <t>Mockup, những bài post có sẵn.</t>
+  </si>
+  <si>
+    <t>PO_09</t>
+  </si>
+  <si>
+    <t>PO_10</t>
+  </si>
+  <si>
+    <t>PO_11</t>
+  </si>
+  <si>
+    <t>Xem được những bài post tồn tại.</t>
+  </si>
+  <si>
+    <t>Xem toàn bộ bài Post</t>
+  </si>
+  <si>
+    <t>Thao tác khi đăng nhập rồi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mở app thành công.
+2. Đăng nhập thành công.
+2. Có sẵn ít nhất 5 bản ghi trong list Post.
+</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào biểu tượng bình luận
+2. Kiểm tra màn hình.
+3. Nhập bình luận</t>
+  </si>
+  <si>
+    <t>Comment thành công</t>
+  </si>
+  <si>
+    <t>1. Cho phép nhấn vào biểu tượng Commet
+2. Hiển thị chi tiết bình luận
+3. Nhấn vào thanh nhập bình luận thì hiển thì bàn phím để nhập bình luận.
+4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Post interface</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện khi mở app thành công</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình
+2. Kiểm tra giao diện bài Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị những bào Post đã có ở trạng thái Public.
+2. Có avt tác giả, hiển thị thời gian post, dấu 3 chấm dọc, biểu tượng like, comment, share
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra đếm số lượng like, comment, share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị những bào Post đã có ở trạng thái Public.
+2. Đếm số lượng bày tỏ cảm xúc đã có.
+3. Đếm đúng số lượng comment đang có.
+4. Đếm số lượt chia sẻ.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Có app đã được cài đặt trong máy
+2. Mở app thành công
+3. Tồn tại ít nhất 1 bản ghi </t>
+  </si>
+  <si>
+    <t>Kiểm tra sự kiện khi click vào số lượng lượt bày tỏ cảm xúc</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra màn hình
+2. Kiểm tra giao diện bài Post
+3. Nhấp chuột vào số lượng bản ghi.
+4. Quan sát màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Bài Post hiển thị giống với bản design.
+2. Có hiển thị số lượng lượt Like, haha, …
+3. Cho phép nhấp chuột.
+4. Hiển thị chi tiết người dùng nào bày tỏ cảm xúc gì, đếm tổng lượt like, haha, care, love, angry, sad, wow.
+5. Nếu người dùng chưa add friend thì hiện biểu tượng add friend bên cạnh tên người dùng. </t>
+  </si>
+  <si>
+    <t>Kiểm tra sự kiện khi click
+ vào avt của người comment, bày tỏ cảm xúc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Có app đã được cài đặt trong máy
+2. Mở app thành công
+3. Tồn tại ít nhất 1 bản ghi 
+4. Mở thành công màn hình tổng hợp lượng like, … </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kiểm tra màn hình
+2. Click vào avt </t>
+  </si>
+  <si>
+    <t>PO_12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,8 +1230,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1552,20 +1790,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1573,18 +1847,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,22 +1856,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1621,46 +1916,43 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1984,34 +2276,34 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="62"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="66"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="35" t="s">
         <v>108</v>
       </c>
@@ -2031,29 +2323,29 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="62"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="B8" s="66"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="A9" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="59" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="A10" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="35" t="s">
         <v>108</v>
       </c>
@@ -2075,29 +2367,29 @@
       </c>
       <c r="F11" s="37"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="62"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="59" t="s">
+      <c r="B14" s="66"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="59" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="A16" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="35" t="s">
         <v>108</v>
       </c>
@@ -2121,11 +2413,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:B2"/>
@@ -2133,6 +2420,11 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2142,22 +2434,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF24FE9-078F-44AF-9B36-02F3C04AA583}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="92.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="92.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="56" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="56" customWidth="1"/>
     <col min="3" max="3" width="23" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="47" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="55"/>
-    <col min="13" max="13" width="11.28515625" style="55" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="55"/>
+    <col min="4" max="4" width="16.109375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" style="47" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" style="55"/>
+    <col min="13" max="13" width="11.33203125" style="55" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="54" customFormat="1" ht="42.75" customHeight="1">
@@ -2182,10 +2474,10 @@
       <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="45" t="s">
         <v>7</v>
       </c>
@@ -2223,28 +2515,28 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="184.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="78" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -2275,7 +2567,7 @@
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="47" t="s">
         <v>165</v>
       </c>
@@ -2300,7 +2592,7 @@
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="46" t="s">
@@ -2326,7 +2618,7 @@
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="47" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2642,7 @@
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="51" t="s">
         <v>72</v>
       </c>
@@ -2377,7 +2669,7 @@
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="49" t="s">
         <v>54</v>
       </c>
@@ -2401,14 +2693,14 @@
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="49" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="69" t="s">
         <v>182</v>
       </c>
       <c r="H10" s="47"/>
@@ -2425,14 +2717,14 @@
       <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="74" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="47" t="s">
         <v>193</v>
       </c>
@@ -2444,8 +2736,8 @@
       <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="75"/>
       <c r="E12" s="49" t="s">
         <v>209</v>
       </c>
@@ -2482,7 +2774,7 @@
       <c r="A14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="71" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="47" t="s">
@@ -2491,7 +2783,7 @@
       <c r="E14" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="69" t="s">
         <v>157</v>
       </c>
       <c r="L14" s="53" t="s">
@@ -2502,14 +2794,14 @@
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="47" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="70"/>
       <c r="L15" s="53" t="s">
         <v>138</v>
       </c>
@@ -2518,7 +2810,7 @@
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="49" t="s">
         <v>70</v>
       </c>
@@ -2536,7 +2828,7 @@
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="49" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +2846,7 @@
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="51" t="s">
         <v>190</v>
       </c>
@@ -2573,7 +2865,7 @@
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -2597,7 +2889,7 @@
       <c r="A20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="47" t="s">
         <v>199</v>
       </c>
@@ -2615,7 +2907,7 @@
       <c r="A21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="71" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="49" t="s">
@@ -2635,14 +2927,14 @@
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="49" t="s">
         <v>223</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="69" t="s">
         <v>182</v>
       </c>
       <c r="L22" s="53" t="s">
@@ -2653,14 +2945,14 @@
       <c r="A23" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="74" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="67"/>
+      <c r="F23" s="70"/>
       <c r="L23" s="53" t="s">
         <v>138</v>
       </c>
@@ -2669,8 +2961,8 @@
       <c r="A24" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="75"/>
       <c r="E24" s="49" t="s">
         <v>218</v>
       </c>
@@ -2685,7 +2977,7 @@
       <c r="A25" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="51" t="s">
         <v>219</v>
       </c>
@@ -2702,18 +2994,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B21:B25"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,35 +3017,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC95F3-AE03-493A-A963-6CC85904072D}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" style="3" customWidth="1"/>
-    <col min="5" max="6" width="37.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="14.33203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1">
       <c r="A2" s="16" t="s">
@@ -2777,10 +3069,10 @@
       <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
@@ -2817,28 +3109,28 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="123" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2860,11 +3152,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="126">
+    <row r="6" spans="1:14" ht="124.8">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
@@ -2881,44 +3173,44 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="63">
+    <row r="7" spans="1:14" ht="62.4">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="95" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="63">
+    <row r="8" spans="1:14" ht="62.4">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="96"/>
       <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="95"/>
       <c r="L8" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="63">
+    <row r="9" spans="1:14" ht="62.4">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="96"/>
       <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2929,12 +3221,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="63">
+    <row r="10" spans="1:14" ht="62.4">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="96"/>
       <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
@@ -2945,12 +3237,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63">
+    <row r="11" spans="1:14" ht="62.4">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="96"/>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
@@ -2961,11 +3253,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="63">
+    <row r="12" spans="1:14" ht="62.4">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="84" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2981,11 +3273,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="63">
+    <row r="13" spans="1:14" ht="62.4">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
@@ -2999,11 +3291,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="78.75">
+    <row r="14" spans="1:14" ht="78">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
@@ -3017,11 +3309,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="78.75">
+    <row r="15" spans="1:14" ht="78">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="14" t="s">
         <v>54</v>
       </c>
@@ -3035,51 +3327,51 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="63">
+    <row r="16" spans="1:14" ht="62.4">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="99" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="100" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="63">
+    <row r="17" spans="1:13" ht="62.4">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="81"/>
+      <c r="F17" s="100"/>
       <c r="L17" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="63">
+    <row r="18" spans="1:13" ht="62.4">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
@@ -3094,7 +3386,7 @@
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="97" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -3103,7 +3395,7 @@
       <c r="E19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="92" t="s">
         <v>157</v>
       </c>
       <c r="L19" s="19" t="s">
@@ -3114,23 +3406,23 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="70"/>
       <c r="L20" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="31.5">
+    <row r="21" spans="1:13" ht="31.2">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="14" t="s">
         <v>70</v>
       </c>
@@ -3144,11 +3436,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="31.5">
+    <row r="22" spans="1:13" ht="31.2">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="14" t="s">
         <v>71</v>
       </c>
@@ -3163,23 +3455,23 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" ht="18.75">
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:13" ht="47.25">
+    <row r="24" spans="1:13" ht="46.8">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="81" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="85" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -3195,15 +3487,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="63">
+    <row r="25" spans="1:13" ht="62.4">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="87"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="24" t="s">
         <v>101</v>
       </c>
@@ -3214,15 +3506,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="47.25">
+    <row r="26" spans="1:13" ht="46.8">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="90"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="25" t="s">
         <v>103</v>
       </c>
@@ -3233,15 +3525,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="63">
+    <row r="27" spans="1:13" ht="62.4">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="87"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="90"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="24" t="s">
         <v>117</v>
       </c>
@@ -3252,15 +3544,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="31.5">
+    <row r="28" spans="1:13" ht="31.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="91"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="39" t="s">
         <v>118</v>
       </c>
@@ -3271,11 +3563,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="47.25">
+    <row r="29" spans="1:13" ht="46.8">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="84" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="40" t="s">
@@ -3291,45 +3583,45 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="47.25">
+    <row r="30" spans="1:13" ht="46.8">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="74"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="88" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="63">
+    <row r="31" spans="1:13" ht="62.4">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="74"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="42" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="93"/>
+      <c r="F31" s="89"/>
       <c r="L31" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="47.25">
+    <row r="32" spans="1:13" ht="46.8">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="41" t="s">
         <v>93</v>
       </c>
@@ -3343,11 +3635,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="63">
+    <row r="33" spans="1:12" ht="62.4">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="42" t="s">
         <v>94</v>
       </c>
@@ -3361,11 +3653,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="78.75">
+    <row r="34" spans="1:12" ht="78">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="74"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="42" t="s">
         <v>95</v>
       </c>
@@ -3379,11 +3671,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="63">
+    <row r="35" spans="1:12" ht="62.4">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="75"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="42" t="s">
         <v>129</v>
       </c>
@@ -3397,11 +3689,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="63">
+    <row r="36" spans="1:12" ht="62.4">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="90" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -3417,11 +3709,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="63">
+    <row r="37" spans="1:12" ht="62.4">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="24" t="s">
         <v>151</v>
       </c>
@@ -3435,11 +3727,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="63">
+    <row r="38" spans="1:12" ht="62.4">
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="24" t="s">
         <v>97</v>
       </c>
@@ -3453,11 +3745,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="63">
+    <row r="39" spans="1:12" ht="62.4">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="24" t="s">
         <v>143</v>
       </c>
@@ -3471,11 +3763,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="63">
+    <row r="40" spans="1:12" ht="62.4">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="24" t="s">
         <v>153</v>
       </c>
@@ -3489,11 +3781,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="63">
+    <row r="41" spans="1:12" ht="62.4">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="24" t="s">
         <v>145</v>
       </c>
@@ -3507,11 +3799,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="47.25">
+    <row r="42" spans="1:12" ht="46.8">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="25" t="s">
         <v>148</v>
       </c>
@@ -3525,11 +3817,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="78.75">
+    <row r="43" spans="1:12" ht="62.4">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="95"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="15" t="s">
         <v>79</v>
       </c>
@@ -3537,18 +3829,18 @@
       <c r="E43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="92" t="s">
         <v>156</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="63">
+    <row r="44" spans="1:12" ht="62.4">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="88"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="15" t="s">
         <v>80</v>
       </c>
@@ -3556,7 +3848,7 @@
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="67"/>
+      <c r="F44" s="70"/>
       <c r="L44" s="19" t="s">
         <v>138</v>
       </c>
@@ -3599,17 +3891,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C11"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="F19:F20"/>
@@ -3617,6 +3898,419 @@
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="F43:F44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687972C2-6C3A-4AED-A76E-3130718BE50F}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="62" customFormat="1" ht="15.6">
+      <c r="B1" s="61"/>
+      <c r="C1" s="63"/>
+      <c r="H1" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+    </row>
+    <row r="2" spans="1:14" s="62" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="63" customFormat="1" ht="15.6">
+      <c r="A3" s="107"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+    </row>
+    <row r="4" spans="1:14" s="113" customFormat="1" ht="75" customHeight="1">
+      <c r="A4" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+    </row>
+    <row r="5" spans="1:14" s="113" customFormat="1" ht="75" customHeight="1">
+      <c r="A5" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+    </row>
+    <row r="6" spans="1:14" s="113" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A6" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+    </row>
+    <row r="7" spans="1:14" s="113" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A7" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="106">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+    </row>
+    <row r="8" spans="1:14" ht="58.2" customHeight="1">
+      <c r="A8" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="57.6">
+      <c r="A9" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="115.2" customHeight="1">
+      <c r="A10" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="150" customHeight="1">
+      <c r="A11" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="100.8" customHeight="1">
+      <c r="A12" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="148.19999999999999" customHeight="1">
+      <c r="A13" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="77.400000000000006" customHeight="1">
+      <c r="A14" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="105"/>
+    </row>
+    <row r="15" spans="1:14" ht="82.8" customHeight="1">
+      <c r="A15" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6">
+      <c r="A16" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="106"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_Mobile_mcovid.xlsx
+++ b/Test_Mobile_mcovid.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA55128-E63D-4820-B827-2EF5D74CFE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F11B7-E1A0-41CB-A5E0-918FC561360B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
     <sheet name="Signin" sheetId="3" r:id="rId2"/>
     <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="Learning" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="349">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -974,12 +976,424 @@
   <si>
     <t>MB_LG_39</t>
   </si>
+  <si>
+    <t>Testcase  Learning</t>
+  </si>
+  <si>
+    <t>MB_LE_01</t>
+  </si>
+  <si>
+    <t>MB_LE_02</t>
+  </si>
+  <si>
+    <t>MB_LE_03</t>
+  </si>
+  <si>
+    <t>MB_LE_04</t>
+  </si>
+  <si>
+    <t>MB_LE_05</t>
+  </si>
+  <si>
+    <t>MB_LE_06</t>
+  </si>
+  <si>
+    <t>MB_LE_07</t>
+  </si>
+  <si>
+    <t>MB_LE_08</t>
+  </si>
+  <si>
+    <t>MB_LE_09</t>
+  </si>
+  <si>
+    <t>MB_LE_10</t>
+  </si>
+  <si>
+    <t>MB_LE_11</t>
+  </si>
+  <si>
+    <t>MB_LE_12</t>
+  </si>
+  <si>
+    <t>MB_LE_13</t>
+  </si>
+  <si>
+    <t>MB_LE_14</t>
+  </si>
+  <si>
+    <t>MB_LE_15</t>
+  </si>
+  <si>
+    <t>MB_LE_16</t>
+  </si>
+  <si>
+    <t>MB_LE_17</t>
+  </si>
+  <si>
+    <t>MB_LE_18</t>
+  </si>
+  <si>
+    <t>MB_LE_20</t>
+  </si>
+  <si>
+    <t>MB_LE_21</t>
+  </si>
+  <si>
+    <t>MB_LE_22</t>
+  </si>
+  <si>
+    <t>MB_LE_23</t>
+  </si>
+  <si>
+    <t>MB_LE_24</t>
+  </si>
+  <si>
+    <t>MB_LE_25</t>
+  </si>
+  <si>
+    <t>MB_LE_26</t>
+  </si>
+  <si>
+    <t>MB_LE_27</t>
+  </si>
+  <si>
+    <t>MB_LE_28</t>
+  </si>
+  <si>
+    <t>MB_LE_29</t>
+  </si>
+  <si>
+    <t>MB_LE_30</t>
+  </si>
+  <si>
+    <t>Test giao diện Learning</t>
+  </si>
+  <si>
+    <t>Testcase  Learning đã được đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Testcase  Learning chưa được đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1. Hiển thị giao diện Learning mặc định:
+- Hình ảnh Profile User
+- Thanh textbox Search
+- Icon message thông báo tin nhắn
+- Text Danh mục mô tả
+- Hiển thị hình ảnh và nội dung tóm tắt của 6 module bài học.
+- Hiển thị mức độ hoàn thành % của mỗi module bài học
+- Hiển thị đánh giá bài học từ người dùng 
+2. Tất cả hiển thị cân đối, không xô lệch, không lỗi chính tả.</t>
+  </si>
+  <si>
+    <t>Test Learning dashboard</t>
+  </si>
+  <si>
+    <t>Test giao diện Learning dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test giao diện  My Favorite </t>
+  </si>
+  <si>
+    <t>1. Đã tải bài học và xem rồi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test My Favorite </t>
+  </si>
+  <si>
+    <t>1. Bài học tự đông lưu vào trang My Favorite của tài khoản đó.
+2. Bài học được sắp xếp theo thời gian được yêu thích (Bài mới nhất hiện lên đầu tiên )</t>
+  </si>
+  <si>
+    <t>1. Hiển thị giao diện My Learning dashboard.
+2. Hiển thị 
+- My Favorites button
+- My Courses button</t>
+  </si>
+  <si>
+    <t>1. Bài học tự động xóa khỏi danh mục My Favorites</t>
+  </si>
+  <si>
+    <t>Test giao diện My courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đã tải bài học và đang học </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Favorite </t>
+  </si>
+  <si>
+    <t>1. Hiển thị các bài học đã được đánh dấu yêu thích.
+2. Bài học được sắp xếp theo thời gian được yêu thích (Bài mới nhất hiện lên đầu tiên )</t>
+  </si>
+  <si>
+    <t>Test My courses</t>
+  </si>
+  <si>
+    <t>1. Hiển thị tất cả khóa học có sẵn và mức độ hoàn thành % của mỗi module bài học, tổng thời gian học gần đây.
+2. Các bài học sắp xếp theo thứ tự từ Course 1, course 2,…</t>
+  </si>
+  <si>
+    <t>1. Chọn vào icon mũ trạng nguyên / Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn vào icon mũ trạng nguyên / Learning.
+ </t>
+  </si>
+  <si>
+    <t>1. Chọn vào quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn My Favorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn icon mũ trạng nguyên / Learning.
+ </t>
+  </si>
+  <si>
+    <t>1. Chọn Quản lý trang cá nhân</t>
+  </si>
+  <si>
+    <t>1. Chọn icon mũ trạng nguyên / Learning</t>
+  </si>
+  <si>
+    <t>1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard</t>
+  </si>
+  <si>
+    <t>1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn Bài học 
+4. Tích vào thẻ yêu thích</t>
+  </si>
+  <si>
+    <t>1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn My Favorite
+4. Bỏ tích thẻ yêu thích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn My Courses
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn My Courses
+4. Chọn 1 Module bất kỳ
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Hiển thị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tất cả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> những bài học, hình ảnh và nội dung tóm tắt của các module bài học.
+- Hiển thị mức độ hoàn thành % của mỗi module bài học
+- Hiển thị đánh giá bài học từ người dùng  </t>
+    </r>
+  </si>
+  <si>
+    <t>Test icon download</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn icon download</t>
+  </si>
+  <si>
+    <t>- Hiển thị màn hình tốc độ download
+- Hiển thị phần trăm và thanh chạy tương xứng nhau
+- Hiển thị dấu tích xanh khi đủ 100%</t>
+  </si>
+  <si>
+    <t>Test icon share</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn icon share</t>
+  </si>
+  <si>
+    <t>- Hiển thị liên kết muốn chia sẻ: publier, message, liên kết khác.</t>
+  </si>
+  <si>
+    <t>Test recomment của người dùng</t>
+  </si>
+  <si>
+    <t>1. Chọn quản lý trang cá nhân.
+2. Chọn My Learning Dashboard
+3. Chọn My Courses</t>
+  </si>
+  <si>
+    <t>- Hiển thị nội dung bình luận của người dùng về bài học. 
+- Hiển thị thời gian đăng bình luận góc dưới bên trái .</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn icon share
+3. Chọn publier</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn icon share
+3. Chọn message</t>
+  </si>
+  <si>
+    <t>- Liên kết chia sẻ đến trang Post của tài khoản người dùng.</t>
+  </si>
+  <si>
+    <t>- Liên kết chia sẻ đến Chatbox của tài khoản người dùng.</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn icon share
+3. Chọn liên kết khác</t>
+  </si>
+  <si>
+    <t>- Hiển thị link icon các mạng xã hội khác nhau: facebook, twitter, google ..</t>
+  </si>
+  <si>
+    <t>MB_LE_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test đăng nhập bằng mạng xã hội </t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công.</t>
+  </si>
+  <si>
+    <t>MB_LG_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click Đăng nhập
+2. Click Facebook icon 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+'- Lần đầu confirm mật khẩu.
+- Đăng nhập thành công 
+- Lần sau thành công.</t>
+  </si>
+  <si>
+    <t>Test đăng nhập bằng Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng nhập bằng Facebook với một email đã tồn tại trên M-Covid online
+</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng Facebook với một email chưa từng đăng ký  trên M-Covid online</t>
+  </si>
+  <si>
+    <t>MB_LG_41</t>
+  </si>
+  <si>
+    <t>Test đăng nhập bằng Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng nhập bằng Google với một email đã tồn tại trên M-Covid online
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click Đăng nhập
+2. Click Google icon 
+</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập bằng Google với một email chưa từng đăng ký  trên M-Covid online</t>
+  </si>
+  <si>
+    <t>MB_LG_42</t>
+  </si>
+  <si>
+    <t>MB_LG_43</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Hiển thị giao diện Learning mặc định:
+- Hình ảnh Profile User
+- Thanh textbox Search
+- Icon message thông báo tin nhắn
+- Text Danh mục mô tả
+- Hiển thị hình ảnh và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 phần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nội dung tóm tắt của module.
+2. Tất cả hiển thị cân đối, không xô lệch, không lỗi chính tả.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị 1 phần bài học, hình ảnh và nội dung tóm tắt của module bài học.
+</t>
+  </si>
+  <si>
+    <t>1. Chưa đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn vào icon mũ trạng nguyên / Learning.
+2. Chọn  Module dùng thử 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị thông báo" Bạn cần đăng ký tài khoản để xem tiếp bài học."
+</t>
+  </si>
+  <si>
+    <t>Test button Signin</t>
+  </si>
+  <si>
+    <t>1. Chọn Module bài học
+2. Chọn button đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị trang đăng ký tài khoản
+</t>
+  </si>
+  <si>
+    <t>28.9.2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1473,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1116,7 +1536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1427,12 +1847,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1456,24 +1889,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,9 +1900,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1497,9 +1909,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1512,30 +1921,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,12 +1929,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1606,48 +1985,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,6 +2090,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1664,9 +2136,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1690,32 +2159,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2044,137 +2570,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="65"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21">
         <v>0</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:B2"/>
@@ -2182,11 +2713,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2196,103 +2722,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF24FE9-078F-44AF-9B36-02F3C04AA583}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="23" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="47" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="55"/>
-    <col min="13" max="13" width="11.28515625" style="55" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="11.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="29" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="37"/>
+    <col min="13" max="13" width="11.28515625" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="54" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:14" s="36" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="184.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -2301,54 +2827,54 @@
       <c r="B4" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="47" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="199.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="74"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="92.25" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -2357,140 +2883,140 @@
       <c r="B6" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="92.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="75"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="92.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="75"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="32" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="92.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B9" s="75"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="92.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B10" s="75"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="92.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B11" s="75"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="47" t="s">
+      <c r="F11" s="70"/>
+      <c r="G11" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2499,17 +3025,17 @@
         <v>176</v>
       </c>
       <c r="B12" s="74"/>
-      <c r="C12" s="70"/>
-      <c r="E12" s="49" t="s">
+      <c r="C12" s="72"/>
+      <c r="E12" s="31" t="s">
         <v>209</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2517,18 +3043,18 @@
       <c r="A13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="32" t="s">
         <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2536,19 +3062,19 @@
       <c r="A14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2556,15 +3082,15 @@
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="L15" s="53" t="s">
+      <c r="F15" s="70"/>
+      <c r="L15" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2572,17 +3098,17 @@
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="31" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2590,17 +3116,17 @@
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2608,18 +3134,18 @@
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="32" t="s">
         <v>212</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2627,23 +3153,23 @@
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="32" t="s">
         <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L19" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="58" t="s">
+      <c r="L19" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="40" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2651,17 +3177,17 @@
       <c r="A20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="32" t="s">
         <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2669,19 +3195,19 @@
       <c r="A21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2689,17 +3215,17 @@
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="53" t="s">
+      <c r="L22" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2707,15 +3233,15 @@
       <c r="A23" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="L23" s="53" t="s">
+      <c r="F23" s="70"/>
+      <c r="L23" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2723,15 +3249,15 @@
       <c r="A24" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="70"/>
-      <c r="E24" s="49" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="72"/>
+      <c r="E24" s="31" t="s">
         <v>218</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="53" t="s">
+      <c r="L24" s="35" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2739,35 +3265,35 @@
       <c r="A25" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="51" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="32" t="s">
         <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="35" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2779,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC95F3-AE03-493A-A963-6CC85904072D}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B44"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2788,8 +3314,8 @@
     <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24" style="3" customWidth="1"/>
-    <col min="5" max="6" width="37.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.7109375" style="57" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
@@ -2803,51 +3329,53 @@
     <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="H1" s="88" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="H1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1">
-      <c r="A2" s="16" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2855,8 +3383,8 @@
       <c r="A3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -2871,28 +3399,28 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:14" ht="123" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2901,10 +3429,10 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="56" t="s">
         <v>140</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -2918,20 +3446,20 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="92"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2939,17 +3467,17 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2957,13 +3485,13 @@
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="88"/>
+      <c r="E8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="L8" s="19" t="s">
+      <c r="F8" s="87"/>
+      <c r="L8" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2971,15 +3499,15 @@
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="91"/>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="88"/>
+      <c r="E9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2987,15 +3515,15 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="91"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="88"/>
+      <c r="E10" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3003,15 +3531,15 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="91"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="88"/>
+      <c r="E11" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3019,19 +3547,19 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3039,17 +3567,17 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3057,17 +3585,17 @@
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="60" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3075,17 +3603,17 @@
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3093,20 +3621,20 @@
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3114,16 +3642,16 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="69" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="83"/>
+      <c r="E17" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="L17" s="19" t="s">
+      <c r="F17" s="84"/>
+      <c r="L17" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3131,16 +3659,16 @@
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3148,19 +3676,19 @@
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3168,15 +3696,15 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="L20" s="19" t="s">
+      <c r="F20" s="70"/>
+      <c r="L20" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3184,17 +3712,17 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3202,47 +3730,47 @@
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" ht="18.75">
-      <c r="A23" s="23" t="s">
+      <c r="L22" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="14" customFormat="1" ht="18.75">
+      <c r="A23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="47.25">
       <c r="A24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="12" t="s">
         <v>138</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -3253,18 +3781,18 @@
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="24" t="s">
+      <c r="D25" s="93"/>
+      <c r="E25" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3272,18 +3800,18 @@
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="93"/>
+      <c r="E26" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3291,18 +3819,18 @@
       <c r="A27" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="93"/>
+      <c r="E27" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3310,18 +3838,18 @@
       <c r="A28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="39" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3329,19 +3857,19 @@
       <c r="A29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3349,17 +3877,17 @@
       <c r="A30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3367,15 +3895,15 @@
       <c r="A31" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="84"/>
-      <c r="L31" s="19" t="s">
+      <c r="F31" s="96"/>
+      <c r="L31" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3383,17 +3911,17 @@
       <c r="A32" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3401,17 +3929,17 @@
       <c r="A33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3419,17 +3947,17 @@
       <c r="A34" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="77"/>
+      <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3437,17 +3965,17 @@
       <c r="A35" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="78"/>
+      <c r="C35" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3455,19 +3983,19 @@
       <c r="A36" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3475,17 +4003,17 @@
       <c r="A37" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3493,17 +4021,17 @@
       <c r="A38" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3511,17 +4039,17 @@
       <c r="A39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3529,17 +4057,17 @@
       <c r="A40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3547,17 +4075,17 @@
       <c r="A41" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3565,17 +4093,17 @@
       <c r="A42" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3583,18 +4111,18 @@
       <c r="A43" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3602,57 +4130,130 @@
       <c r="A44" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="91"/>
+      <c r="C44" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="65"/>
-      <c r="L44" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="F44" s="70"/>
+      <c r="L44" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="105" customFormat="1" ht="18.75">
+      <c r="A45" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+    </row>
+    <row r="46" spans="1:12" ht="126">
+      <c r="A46" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="106"/>
+    </row>
+    <row r="47" spans="1:12" ht="126">
+      <c r="A47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="100"/>
+      <c r="D47" s="108" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="106"/>
+    </row>
+    <row r="48" spans="1:12" ht="110.25">
+      <c r="A48" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="110.25">
+      <c r="A49" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" s="100"/>
+      <c r="D49" s="108" t="s">
+        <v>337</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:6">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="F19:F20"/>
@@ -3660,20 +4261,573 @@
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2660E-C949-4A21-BDCC-6889393A7F11}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="38" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="38"/>
+    <col min="13" max="13" width="10.140625" style="38" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="59"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="58"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="1:14" ht="229.5" customHeight="1">
+      <c r="A5" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="78.75">
+      <c r="A6" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="78.75">
+      <c r="A7" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="78.75">
+      <c r="A8" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="63">
+      <c r="A9" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A10" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="110.25">
+      <c r="A11" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="78.75">
+      <c r="A12" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5">
+      <c r="A13" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="47.25">
+      <c r="A14" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="E14" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="47.25">
+      <c r="A15" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="E15" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="47.25">
+      <c r="A16" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="E16" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="63">
+      <c r="A17" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="52" customFormat="1">
+      <c r="A18" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="L18" s="126"/>
+    </row>
+    <row r="19" spans="1:13" ht="157.5">
+      <c r="A19" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="63">
+      <c r="A20" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A21" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>344</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A22" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="124"/>
+      <c r="L22" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A23" s="102" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="109" t="s">
+        <v>347</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="125"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="56"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="102" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="102" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="102" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="102" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B73BE-8BD3-48F8-98B7-D6C2B107413C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_Mobile_mcovid.xlsx
+++ b/Test_Mobile_mcovid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F11B7-E1A0-41CB-A5E0-918FC561360B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E616E4-F6A3-4E71-AEED-DD1956E9FE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8E5FA642-1EE3-45B7-86BB-FC07B18340E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="337">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1032,39 +1032,6 @@
   </si>
   <si>
     <t>MB_LE_18</t>
-  </si>
-  <si>
-    <t>MB_LE_20</t>
-  </si>
-  <si>
-    <t>MB_LE_21</t>
-  </si>
-  <si>
-    <t>MB_LE_22</t>
-  </si>
-  <si>
-    <t>MB_LE_23</t>
-  </si>
-  <si>
-    <t>MB_LE_24</t>
-  </si>
-  <si>
-    <t>MB_LE_25</t>
-  </si>
-  <si>
-    <t>MB_LE_26</t>
-  </si>
-  <si>
-    <t>MB_LE_27</t>
-  </si>
-  <si>
-    <t>MB_LE_28</t>
-  </si>
-  <si>
-    <t>MB_LE_29</t>
-  </si>
-  <si>
-    <t>MB_LE_30</t>
   </si>
   <si>
     <t>Test giao diện Learning</t>
@@ -1268,9 +1235,6 @@
   </si>
   <si>
     <t>- Hiển thị link icon các mạng xã hội khác nhau: facebook, twitter, google ..</t>
-  </si>
-  <si>
-    <t>MB_LE_19</t>
   </si>
   <si>
     <t xml:space="preserve">Test đăng nhập bằng mạng xã hội </t>
@@ -1865,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2048,20 +2012,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2069,18 +2126,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2090,22 +2135,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,131 +2201,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2570,28 +2537,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="19" t="s">
         <v>108</v>
       </c>
@@ -2612,28 +2579,28 @@
       <c r="F5" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="88"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="19" t="s">
         <v>108</v>
       </c>
@@ -2656,28 +2623,28 @@
       <c r="F11" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="88"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="19" t="s">
         <v>108</v>
       </c>
@@ -2701,11 +2668,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A2:B2"/>
@@ -2713,6 +2675,11 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,10 +2729,10 @@
       <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="67"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
@@ -2803,28 +2770,28 @@
       <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" ht="184.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="100" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -2855,7 +2822,7 @@
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="29" t="s">
         <v>165</v>
       </c>
@@ -2880,7 +2847,7 @@
       <c r="A6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="100" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -2906,7 +2873,7 @@
       <c r="A7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="29" t="s">
         <v>76</v>
       </c>
@@ -2930,7 +2897,7 @@
       <c r="A8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="33" t="s">
         <v>72</v>
       </c>
@@ -2957,7 +2924,7 @@
       <c r="A9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="31" t="s">
         <v>54</v>
       </c>
@@ -2981,14 +2948,14 @@
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="31" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="91" t="s">
         <v>182</v>
       </c>
       <c r="H10" s="29"/>
@@ -3005,14 +2972,14 @@
       <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="96" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="29" t="s">
         <v>193</v>
       </c>
@@ -3024,8 +2991,8 @@
       <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="97"/>
       <c r="E12" s="31" t="s">
         <v>209</v>
       </c>
@@ -3062,7 +3029,7 @@
       <c r="A14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="93" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3071,7 +3038,7 @@
       <c r="E14" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="91" t="s">
         <v>157</v>
       </c>
       <c r="L14" s="35" t="s">
@@ -3082,14 +3049,14 @@
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="29" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="92"/>
       <c r="L15" s="35" t="s">
         <v>138</v>
       </c>
@@ -3098,7 +3065,7 @@
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="31" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3083,7 @@
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="31" t="s">
         <v>71</v>
       </c>
@@ -3134,7 +3101,7 @@
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="33" t="s">
         <v>190</v>
       </c>
@@ -3153,7 +3120,7 @@
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="93" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -3177,7 +3144,7 @@
       <c r="A20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="29" t="s">
         <v>199</v>
       </c>
@@ -3195,7 +3162,7 @@
       <c r="A21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="93" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -3215,14 +3182,14 @@
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="31" t="s">
         <v>223</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="91" t="s">
         <v>182</v>
       </c>
       <c r="L22" s="35" t="s">
@@ -3233,14 +3200,14 @@
       <c r="A23" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="96" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="92"/>
       <c r="L23" s="35" t="s">
         <v>138</v>
       </c>
@@ -3249,8 +3216,8 @@
       <c r="A24" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="97"/>
       <c r="E24" s="31" t="s">
         <v>218</v>
       </c>
@@ -3265,7 +3232,7 @@
       <c r="A25" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="33" t="s">
         <v>219</v>
       </c>
@@ -3282,18 +3249,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B21:B25"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC95F3-AE03-493A-A963-6CC85904072D}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A49"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3331,11 +3298,11 @@
       <c r="C1" s="3"/>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
       <c r="A2" s="10" t="s">
@@ -3359,10 +3326,10 @@
       <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3399,28 +3366,28 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="123" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3446,7 +3413,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
@@ -3467,14 +3434,14 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="120" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="119" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -3485,12 +3452,12 @@
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="88"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="120"/>
       <c r="E8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="119"/>
       <c r="L8" s="12" t="s">
         <v>138</v>
       </c>
@@ -3499,8 +3466,8 @@
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="120"/>
       <c r="E9" s="57" t="s">
         <v>46</v>
       </c>
@@ -3515,8 +3482,8 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="88"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="120"/>
       <c r="E10" s="57" t="s">
         <v>47</v>
       </c>
@@ -3531,8 +3498,8 @@
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="120"/>
       <c r="E11" s="57" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3514,7 @@
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="108" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3567,7 +3534,7 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
@@ -3585,7 +3552,7 @@
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
@@ -3603,7 +3570,7 @@
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
@@ -3621,17 +3588,17 @@
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="123" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="124" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="12" t="s">
@@ -3642,15 +3609,15 @@
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="124"/>
       <c r="L17" s="12" t="s">
         <v>138</v>
       </c>
@@ -3659,9 +3626,9 @@
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="54" t="s">
         <v>69</v>
       </c>
@@ -3676,7 +3643,7 @@
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="121" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3685,7 +3652,7 @@
       <c r="E19" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="116" t="s">
         <v>157</v>
       </c>
       <c r="L19" s="12" t="s">
@@ -3696,14 +3663,14 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="92"/>
       <c r="L20" s="12" t="s">
         <v>138</v>
       </c>
@@ -3712,7 +3679,7 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
@@ -3730,7 +3697,7 @@
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="8" t="s">
         <v>71</v>
       </c>
@@ -3755,19 +3722,19 @@
       <c r="A24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="105" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="110" t="s">
+      <c r="F24" s="71" t="s">
         <v>100</v>
       </c>
       <c r="L24" s="12" t="s">
@@ -3781,15 +3748,15 @@
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="90"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="117" t="s">
+      <c r="D25" s="110"/>
+      <c r="E25" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="72" t="s">
         <v>116</v>
       </c>
       <c r="L25" s="12" t="s">
@@ -3800,15 +3767,15 @@
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="118" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="73" t="s">
         <v>115</v>
       </c>
       <c r="L26" s="12" t="s">
@@ -3819,15 +3786,15 @@
       <c r="A27" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="90"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="117" t="s">
+      <c r="D27" s="110"/>
+      <c r="E27" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="73" t="s">
         <v>131</v>
       </c>
       <c r="L27" s="12" t="s">
@@ -3838,15 +3805,15 @@
       <c r="A28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="119" t="s">
+      <c r="D28" s="111"/>
+      <c r="E28" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="74" t="s">
         <v>119</v>
       </c>
       <c r="L28" s="12" t="s">
@@ -3857,16 +3824,16 @@
       <c r="A29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="108" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="120" t="s">
+      <c r="E29" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="75" t="s">
         <v>122</v>
       </c>
       <c r="L29" s="12" t="s">
@@ -3877,14 +3844,14 @@
       <c r="A30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="77"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="120" t="s">
+      <c r="E30" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="112" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="12" t="s">
@@ -3895,14 +3862,14 @@
       <c r="A31" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="116" t="s">
+      <c r="E31" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="96"/>
+      <c r="F31" s="113"/>
       <c r="L31" s="12" t="s">
         <v>138</v>
       </c>
@@ -3911,207 +3878,207 @@
       <c r="A32" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="118" t="s">
+      <c r="E32" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="73" t="s">
         <v>127</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="63">
+    <row r="33" spans="1:13" ht="63">
       <c r="A33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="73" t="s">
         <v>128</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="78.75">
+    <row r="34" spans="1:13" ht="78.75">
       <c r="A34" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="111" t="s">
+      <c r="F34" s="72" t="s">
         <v>136</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="63">
+    <row r="35" spans="1:13" ht="63">
       <c r="A35" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="111" t="s">
+      <c r="F35" s="72" t="s">
         <v>132</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="63">
+    <row r="36" spans="1:13" ht="63">
       <c r="A36" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="114" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="116" t="s">
+      <c r="E36" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="77" t="s">
         <v>142</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="63">
+    <row r="37" spans="1:13" ht="63">
       <c r="A37" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="116" t="s">
+      <c r="E37" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="73" t="s">
         <v>160</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="63">
+    <row r="38" spans="1:13" ht="63">
       <c r="A38" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="98"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="116" t="s">
+      <c r="E38" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="73" t="s">
         <v>158</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="63">
+    <row r="39" spans="1:13" ht="63">
       <c r="A39" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="98"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="121" t="s">
+      <c r="E39" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="74" t="s">
         <v>144</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="63">
+    <row r="40" spans="1:13" ht="63">
       <c r="A40" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="98"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="121" t="s">
+      <c r="E40" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="113" t="s">
+      <c r="F40" s="74" t="s">
         <v>155</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="63">
+    <row r="41" spans="1:13" ht="63">
       <c r="A41" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="98"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="116" t="s">
+      <c r="E41" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="73" t="s">
         <v>147</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="47.25">
+    <row r="42" spans="1:13" ht="47.25">
       <c r="A42" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="98"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="122" t="s">
+      <c r="E42" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="76" t="s">
         <v>98</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="78.75">
+    <row r="43" spans="1:13" ht="78.75">
       <c r="A43" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="98"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="9" t="s">
         <v>79</v>
       </c>
@@ -4119,18 +4086,18 @@
       <c r="E43" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="116" t="s">
         <v>156</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="63">
+    <row r="44" spans="1:13" ht="63">
       <c r="A44" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="9" t="s">
         <v>80</v>
       </c>
@@ -4138,114 +4105,125 @@
       <c r="E44" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="70"/>
+      <c r="F44" s="92"/>
       <c r="L44" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="105" customFormat="1" ht="18.75">
+    <row r="45" spans="1:13" s="66" customFormat="1" ht="18.75">
       <c r="A45" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" ht="126">
+      <c r="A46" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="L46" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="126">
+      <c r="A47" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="67"/>
+      <c r="L47" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="110.25">
+      <c r="A48" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="110.25">
+      <c r="A49" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-    </row>
-    <row r="46" spans="1:12" ht="126">
-      <c r="A46" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C46" s="99" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="108" t="s">
-        <v>331</v>
-      </c>
-      <c r="E46" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" s="106"/>
-    </row>
-    <row r="47" spans="1:12" ht="126">
-      <c r="A47" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="108" t="s">
-        <v>332</v>
-      </c>
-      <c r="E47" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" s="106"/>
-    </row>
-    <row r="48" spans="1:12" ht="110.25">
-      <c r="A48" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C48" s="99" t="s">
-        <v>334</v>
-      </c>
-      <c r="D48" s="108" t="s">
-        <v>335</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="110.25">
-      <c r="A49" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="108" t="s">
-        <v>337</v>
-      </c>
       <c r="E49" s="57" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>314</v>
+      </c>
+      <c r="L49" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:12">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:12">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:12">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:12">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:12">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:12">
       <c r="A56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D24:D28"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="B36:B44"/>
     <mergeCell ref="F43:F44"/>
@@ -4261,6 +4239,11 @@
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4270,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D2660E-C949-4A21-BDCC-6889393A7F11}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4293,11 +4276,11 @@
     <row r="1" spans="1:14">
       <c r="A1" s="59"/>
       <c r="G1" s="44"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
@@ -4325,10 +4308,10 @@
       <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="41" t="s">
         <v>7</v>
       </c>
@@ -4365,441 +4348,387 @@
       <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="A4" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="229.5" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="63" t="s">
         <v>250</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="78.75">
+      <c r="A6" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="78.75">
+      <c r="A7" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="78.75">
+      <c r="A8" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="63">
+      <c r="A9" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="78.75">
-      <c r="A6" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="L9" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A10" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="110.25">
+      <c r="A11" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>284</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="78.75">
-      <c r="A7" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="78.75">
-      <c r="A8" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="99" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="63">
-      <c r="A9" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="98.25" customHeight="1">
-      <c r="A10" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="110.25">
-      <c r="A11" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>295</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="57" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L11" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="78.75">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="63" t="s">
         <v>257</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5">
+      <c r="A13" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="47.25">
+      <c r="A14" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="E14" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="47.25">
+      <c r="A15" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="E15" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="L15" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="47.25">
+      <c r="A16" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="E16" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="L12" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="31.5">
-      <c r="A13" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="99" t="s">
+      <c r="F16" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="47.25">
-      <c r="A14" s="102" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="101"/>
-      <c r="E14" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="47.25">
-      <c r="A15" s="102" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="E15" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="47.25">
-      <c r="A16" s="102" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="E16" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>323</v>
-      </c>
       <c r="L16" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="63">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="63" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="52" customFormat="1">
-      <c r="A18" s="103" t="s">
-        <v>281</v>
+      <c r="A18" s="64" t="s">
+        <v>270</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="51"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
-      <c r="L18" s="126"/>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:13" ht="157.5">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="63" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>249</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E19" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="63">
+      <c r="A20" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A21" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="63">
-      <c r="A20" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A21" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>309</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="123" t="s">
-        <v>344</v>
+        <v>299</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>332</v>
       </c>
       <c r="L21" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="63" t="s">
         <v>266</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="124"/>
+        <v>302</v>
+      </c>
+      <c r="F22" s="127"/>
       <c r="L22" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F23" s="109" t="s">
-        <v>347</v>
+        <v>334</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>335</v>
       </c>
       <c r="L23" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="102" t="s">
-        <v>324</v>
-      </c>
       <c r="D24" s="57"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="125"/>
+      <c r="F24" s="84"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="102" t="s">
-        <v>268</v>
-      </c>
       <c r="D25" s="57"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="102" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="102" t="s">
-        <v>270</v>
-      </c>
-    </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="102" t="s">
-        <v>271</v>
-      </c>
       <c r="E28" s="56"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="102" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="102" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="102" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="102" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="102" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="102" t="s">
-        <v>278</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
